--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/76.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/76.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2195790550763535</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.676661304771661</v>
+        <v>-1.708924278809602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03839111403447586</v>
+        <v>0.0613668259275752</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1205078603546352</v>
+        <v>-0.1157516989173538</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2411253730746896</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.718490884624396</v>
+        <v>-1.738127890732976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04970453266747558</v>
+        <v>0.06502513014671005</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1422612912115314</v>
+        <v>-0.1304154118277306</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2890348619178086</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.823255739428056</v>
+        <v>-1.845572736990268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08252497420396533</v>
+        <v>0.09056128904079774</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1493491793960206</v>
+        <v>-0.1346092264010503</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3437428163639777</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.972822317542245</v>
+        <v>-1.997632060910326</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1223082701862109</v>
+        <v>0.1238928441044024</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1796378402033292</v>
+        <v>-0.1643080939139435</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3836780389326246</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.067786966911918</v>
+        <v>-2.11913557876666</v>
       </c>
       <c r="F6" t="n">
-        <v>0.213444447467936</v>
+        <v>0.2328155281614543</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1787528453013677</v>
+        <v>-0.1582845173103797</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3966656377103343</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.010701441171683</v>
+        <v>-2.084897681577408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3137770087136683</v>
+        <v>0.3293641415286416</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2000524951747634</v>
+        <v>-0.1749170541652992</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3882140634477643</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.773383135611044</v>
+        <v>-1.839944388985236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4111063205470931</v>
+        <v>0.4441628013854843</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2213673930650778</v>
+        <v>-0.2128827865308356</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3700699715758627</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.40943187930262</v>
+        <v>-1.461243420951014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5244564187966592</v>
+        <v>0.5429022498235507</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1934452244835517</v>
+        <v>-0.1908725790690284</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3475956356441672</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9278025276224252</v>
+        <v>-0.9848758549491247</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5656583902730207</v>
+        <v>0.5691129809861217</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1920198398619915</v>
+        <v>-0.1917142696029407</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3139742721355742</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3967757003324053</v>
+        <v>-0.4207852277725926</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5068138533010449</v>
+        <v>0.4990202868935582</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1348983288018289</v>
+        <v>-0.1428718218089562</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2593197510200173</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1509916197723186</v>
+        <v>0.1597604493419254</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3485199202232679</v>
+        <v>0.3405208105477171</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04497711350818594</v>
+        <v>-0.06686594675532025</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1782249155924144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6477207776467649</v>
+        <v>0.7047843462426365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1249900914018721</v>
+        <v>0.1020406060978729</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06074775644067592</v>
+        <v>0.04110282136329772</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.07634428447107001</v>
       </c>
       <c r="E14" t="n">
-        <v>1.173955458179575</v>
+        <v>1.244058520923644</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1443960135801496</v>
+        <v>-0.1852234937609879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1918251991599243</v>
+        <v>0.1746370245684873</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.03128466829680789</v>
       </c>
       <c r="E15" t="n">
-        <v>1.785024005641273</v>
+        <v>1.884707001366269</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5035124286839922</v>
+        <v>-0.565334598399852</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3187856773111233</v>
+        <v>0.3111494704382376</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.143793537895609</v>
       </c>
       <c r="E16" t="n">
-        <v>2.338918588864608</v>
+        <v>2.445272896951874</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7640034505163202</v>
+        <v>-0.8645775403500447</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4850671315715928</v>
+        <v>0.4890157580328598</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2670687701358438</v>
       </c>
       <c r="E17" t="n">
-        <v>2.784997494059188</v>
+        <v>2.914007915604938</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.038510449500319</v>
+        <v>-1.153176756570307</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6079210138062472</v>
+        <v>0.6317896495701056</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3952885847696981</v>
       </c>
       <c r="E18" t="n">
-        <v>3.163323970797888</v>
+        <v>3.291313385130761</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.394033821897438</v>
+        <v>-1.52338518910149</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7731357168030843</v>
+        <v>0.8021356152204242</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.516912237338305</v>
       </c>
       <c r="E19" t="n">
-        <v>3.475628973961317</v>
+        <v>3.627801743127251</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.794876740259646</v>
+        <v>-1.917974590764999</v>
       </c>
       <c r="G19" t="n">
-        <v>0.962531334950275</v>
+        <v>1.003375282989385</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6222337485702544</v>
       </c>
       <c r="E20" t="n">
-        <v>3.846369257322624</v>
+        <v>3.980661591929012</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.08069593803529</v>
+        <v>-2.226655445267192</v>
       </c>
       <c r="G20" t="n">
-        <v>1.119995165986998</v>
+        <v>1.158842233730435</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7063399221436751</v>
       </c>
       <c r="E21" t="n">
-        <v>4.064063365108894</v>
+        <v>4.220505579012064</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.329727770192876</v>
+        <v>-2.474693716642355</v>
       </c>
       <c r="G21" t="n">
-        <v>1.213072720782812</v>
+        <v>1.257738431782426</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7672139708415739</v>
       </c>
       <c r="E22" t="n">
-        <v>4.339848757831357</v>
+        <v>4.506978001832506</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.558564518822656</v>
+        <v>-2.708966078343314</v>
       </c>
       <c r="G22" t="n">
-        <v>1.351216704462863</v>
+        <v>1.40464453590464</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8058369969927617</v>
       </c>
       <c r="E23" t="n">
-        <v>4.522884733082096</v>
+        <v>4.678542588994968</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.772757072003716</v>
+        <v>-2.892795560394501</v>
       </c>
       <c r="G23" t="n">
-        <v>1.466882061601365</v>
+        <v>1.510370015774178</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8266220680043593</v>
       </c>
       <c r="E24" t="n">
-        <v>4.695635006040155</v>
+        <v>4.839880026249717</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.98089829719042</v>
+        <v>-3.099688277955902</v>
       </c>
       <c r="G24" t="n">
-        <v>1.575218611888062</v>
+        <v>1.61561670791247</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8347806321982039</v>
       </c>
       <c r="E25" t="n">
-        <v>4.800465732276904</v>
+        <v>4.946120889091108</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.088541367667655</v>
+        <v>-3.188712604894387</v>
       </c>
       <c r="G25" t="n">
-        <v>1.638482634083754</v>
+        <v>1.675658519172902</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8337725505343587</v>
       </c>
       <c r="E26" t="n">
-        <v>4.81340214983073</v>
+        <v>4.974047937038048</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.138347490130901</v>
+        <v>-3.242173981973385</v>
       </c>
       <c r="G26" t="n">
-        <v>1.674884529834109</v>
+        <v>1.708431996817282</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8266828249552074</v>
       </c>
       <c r="E27" t="n">
-        <v>4.768098461803238</v>
+        <v>4.939075085433315</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.140432808924703</v>
+        <v>-3.226042799914752</v>
       </c>
       <c r="G27" t="n">
-        <v>1.686297975458095</v>
+        <v>1.715777271527359</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8159188894522355</v>
       </c>
       <c r="E28" t="n">
-        <v>4.745508219777844</v>
+        <v>4.909165795286943</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.196505561381197</v>
+        <v>-3.285313976400113</v>
       </c>
       <c r="G28" t="n">
-        <v>1.69702343055871</v>
+        <v>1.725237141223722</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8028846037249818</v>
       </c>
       <c r="E29" t="n">
-        <v>4.668942437542952</v>
+        <v>4.829638238245764</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.191624976125859</v>
+        <v>-3.251570419919365</v>
       </c>
       <c r="G29" t="n">
-        <v>1.646029792537835</v>
+        <v>1.666932384050668</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7889141562719526</v>
       </c>
       <c r="E30" t="n">
-        <v>4.611231743109052</v>
+        <v>4.755130328374221</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.056289067241556</v>
+        <v>-3.121823519156443</v>
       </c>
       <c r="G30" t="n">
-        <v>1.592889843655484</v>
+        <v>1.614902490799998</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7745611975854882</v>
       </c>
       <c r="E31" t="n">
-        <v>4.466489027627263</v>
+        <v>4.621827285105519</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.001437985900588</v>
+        <v>-3.080016506368747</v>
       </c>
       <c r="G31" t="n">
-        <v>1.55836528374816</v>
+        <v>1.578324327974063</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7583001432077814</v>
       </c>
       <c r="E32" t="n">
-        <v>4.352566823782907</v>
+        <v>4.506454689891856</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.913346227676851</v>
+        <v>-2.984477921642255</v>
       </c>
       <c r="G32" t="n">
-        <v>1.523984055199872</v>
+        <v>1.534292934478267</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.737418370145747</v>
       </c>
       <c r="E33" t="n">
-        <v>4.114524542378968</v>
+        <v>4.26486145030789</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.852696935422377</v>
+        <v>-2.915085721446936</v>
       </c>
       <c r="G33" t="n">
-        <v>1.447357280897306</v>
+        <v>1.462268621602443</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7092938845153332</v>
       </c>
       <c r="E34" t="n">
-        <v>3.951106055775154</v>
+        <v>4.124751692286679</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.698466293893096</v>
+        <v>-2.784940847442436</v>
       </c>
       <c r="G34" t="n">
-        <v>1.361869579002945</v>
+        <v>1.388911632047924</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6724421009954464</v>
       </c>
       <c r="E35" t="n">
-        <v>3.78653603893364</v>
+        <v>3.932442483066664</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.637972531411193</v>
+        <v>-2.740142783655967</v>
       </c>
       <c r="G35" t="n">
-        <v>1.293195560404497</v>
+        <v>1.328828956102149</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6268901066028102</v>
       </c>
       <c r="E36" t="n">
-        <v>3.600433382520212</v>
+        <v>3.743944058234969</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.605561956569478</v>
+        <v>-2.710082233181763</v>
       </c>
       <c r="G36" t="n">
-        <v>1.252973121534993</v>
+        <v>1.277077186680077</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5741180069413324</v>
       </c>
       <c r="E37" t="n">
-        <v>3.358526643708397</v>
+        <v>3.512238852662442</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.553738826428226</v>
+        <v>-2.651154137077072</v>
       </c>
       <c r="G37" t="n">
-        <v>1.17443668559353</v>
+        <v>1.204477108685402</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5157667051479458</v>
       </c>
       <c r="E38" t="n">
-        <v>3.188810116196482</v>
+        <v>3.321351978460603</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.565901254643259</v>
+        <v>-2.665906288485578</v>
       </c>
       <c r="G38" t="n">
-        <v>1.124494550819368</v>
+        <v>1.154003733001793</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4551920338659838</v>
       </c>
       <c r="E39" t="n">
-        <v>2.98359254577377</v>
+        <v>3.09337460806436</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.540809727922521</v>
+        <v>-2.646130830383375</v>
       </c>
       <c r="G39" t="n">
-        <v>1.049829891333901</v>
+        <v>1.079861775536299</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3949300707448025</v>
       </c>
       <c r="E40" t="n">
-        <v>2.796879968683594</v>
+        <v>2.90330380772801</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.526422918999387</v>
+        <v>-2.619321767036914</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9729506098711621</v>
+        <v>1.000948408616605</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3372045209433914</v>
       </c>
       <c r="E41" t="n">
-        <v>2.626886537184436</v>
+        <v>2.744721992090807</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.491264041588246</v>
+        <v>-2.589152650682248</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9326854765542856</v>
+        <v>0.9551177491244024</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.284321378313059</v>
       </c>
       <c r="E42" t="n">
-        <v>2.415678325874705</v>
+        <v>2.521228758510016</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.443618258162041</v>
+        <v>-2.534660507659547</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8752449769801837</v>
+        <v>0.8927429912754088</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2362343142497071</v>
       </c>
       <c r="E43" t="n">
-        <v>2.216980807486429</v>
+        <v>2.335516451329707</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.381844272179644</v>
+        <v>-2.478169654579141</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8142547390674082</v>
+        <v>0.8462023841154714</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1915230440165523</v>
       </c>
       <c r="E44" t="n">
-        <v>2.044839845284441</v>
+        <v>2.164944815028992</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.353747666284568</v>
+        <v>-2.441170036565574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7802656895142691</v>
+        <v>0.7993311999487367</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1491573215677995</v>
       </c>
       <c r="E45" t="n">
-        <v>1.87497266736537</v>
+        <v>2.006803362120402</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.336073384913763</v>
+        <v>-2.408511224008423</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7072325678391032</v>
+        <v>0.7363532305504392</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1087949523013525</v>
       </c>
       <c r="E46" t="n">
-        <v>1.779346863982102</v>
+        <v>1.900632030236161</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.249887323844525</v>
+        <v>-2.309407043005661</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6394356151738193</v>
+        <v>0.6644472422859037</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.06961104995841919</v>
       </c>
       <c r="E47" t="n">
-        <v>1.620305168154632</v>
+        <v>1.729580386362845</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.143837976095633</v>
+        <v>-2.213064582827215</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5602813295868099</v>
+        <v>0.6024738122422103</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.03130291486467902</v>
       </c>
       <c r="E48" t="n">
-        <v>1.503191859329531</v>
+        <v>1.618785855748853</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.135949871983251</v>
+        <v>-2.180227673432452</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5089449161456026</v>
+        <v>0.5532324763256325</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.006181646348456238</v>
       </c>
       <c r="E49" t="n">
-        <v>1.404055962451578</v>
+        <v>1.499417060261137</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.037541000551982</v>
+        <v>-2.081901751213221</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4613589049457191</v>
+        <v>0.4943385357788401</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.04286558366769685</v>
       </c>
       <c r="E50" t="n">
-        <v>1.304221096478072</v>
+        <v>1.397169958011092</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.981224584785126</v>
+        <v>-2.00490292529784</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3993013058486344</v>
+        <v>0.4405764678062057</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.07902559526921739</v>
       </c>
       <c r="E51" t="n">
-        <v>1.231553317288278</v>
+        <v>1.309938492901908</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.950732210471784</v>
+        <v>-1.977144215457682</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3487102154744133</v>
+        <v>0.3887630963957815</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1153058852156052</v>
       </c>
       <c r="E52" t="n">
-        <v>1.162620082402213</v>
+        <v>1.237969682807668</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.90428858069945</v>
+        <v>-1.926029203222134</v>
       </c>
       <c r="G52" t="n">
-        <v>0.273804027400954</v>
+        <v>0.3188466693787981</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1525294432329254</v>
       </c>
       <c r="E53" t="n">
-        <v>1.104904508602897</v>
+        <v>1.182565098452551</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.900482675676542</v>
+        <v>-1.915518440199735</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2285979266817415</v>
+        <v>0.2793970000067337</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1905622682765156</v>
       </c>
       <c r="E54" t="n">
-        <v>1.016686801759412</v>
+        <v>1.088467756285214</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.819254659788589</v>
+        <v>-1.83635012643716</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2029471027004252</v>
+        <v>0.2552679281139038</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2293835025586407</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9742619393261704</v>
+        <v>1.044855988215021</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.838561088890372</v>
+        <v>-1.859536260963738</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1606960676600569</v>
+        <v>0.2131230192712897</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2690244516480256</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9765723188496921</v>
+        <v>1.046269784343723</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.811639190218713</v>
+        <v>-1.82458109705863</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1216770022857767</v>
+        <v>0.178806442314737</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3091507550159702</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9055903604104298</v>
+        <v>0.9578459243114965</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.810129636543761</v>
+        <v>-1.82838090287477</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07629890393572115</v>
+        <v>0.1304940155888466</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3489434656872413</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8483608933904828</v>
+        <v>0.9119402445760538</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.833065093672195</v>
+        <v>-1.840492097752956</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0529968844805616</v>
+        <v>0.120233320043914</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3875502940760983</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8164778999341549</v>
+        <v>0.8640700103408058</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.853168079177811</v>
+        <v>-1.849627489649289</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05922478451083602</v>
+        <v>0.1161352630168438</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4237726334241957</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7494714044659364</v>
+        <v>0.8032944645062455</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.858135273169247</v>
+        <v>-1.854035996300824</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0300711860829556</v>
+        <v>0.09164511808337904</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4583706518491084</v>
       </c>
       <c r="E61" t="n">
-        <v>0.741899849184786</v>
+        <v>0.7958778290769892</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.816771672713548</v>
+        <v>-1.818272077578348</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01089771968870365</v>
+        <v>0.06831321251505883</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4915905921724118</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7566086962252422</v>
+        <v>0.8114173880791762</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.776268670332739</v>
+        <v>-1.803243022182599</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02357194735771284</v>
+        <v>0.03243279894332408</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5241777363007571</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7324058239305258</v>
+        <v>0.7881952682326706</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.853498656184609</v>
+        <v>-1.860017488377692</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0179960525308821</v>
+        <v>0.03959021808496254</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5566181027178295</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7634660343939206</v>
+        <v>0.8299248210944192</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.838036557108369</v>
+        <v>-1.863222011613326</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02952294340074365</v>
+        <v>0.02537479687199555</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5896644593874464</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7679532208127561</v>
+        <v>0.8499143613541601</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.840832433490582</v>
+        <v>-1.870900303012907</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.04924838800745259</v>
+        <v>0.009133219170871518</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6237336985540374</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7745751296002098</v>
+        <v>0.8671970736504931</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.858737264877198</v>
+        <v>-1.901196892789014</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.04893366893825059</v>
+        <v>-0.002557130440358509</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6599377526132745</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7593466301431643</v>
+        <v>0.8623439348256088</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.85705632349208</v>
+        <v>-1.903326735792218</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07347199760517846</v>
+        <v>-0.0148067773121665</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6973867958428753</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7745397542009583</v>
+        <v>0.8629379975647614</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.853939018913221</v>
+        <v>-1.925138719034082</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1073201554819887</v>
+        <v>-0.05173930405129166</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7341923484673528</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7369668107512478</v>
+        <v>0.8389345693313416</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.859663734385178</v>
+        <v>-1.940529457391142</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.09971749424632415</v>
+        <v>-0.03905112421290181</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7691624128178957</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7629091768160496</v>
+        <v>0.8582080627165802</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.850489307565534</v>
+        <v>-1.933315925547243</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1363090753271471</v>
+        <v>-0.06811079485656303</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8012486626413515</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7734510457929631</v>
+        <v>0.8616034911240367</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.848852280469142</v>
+        <v>-1.920072107972336</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1667178905077751</v>
+        <v>-0.1060716478566854</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8293155219688181</v>
       </c>
       <c r="E72" t="n">
-        <v>0.763801490766132</v>
+        <v>0.8471544702918752</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.881046943391288</v>
+        <v>-1.951448257346286</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1677193802589954</v>
+        <v>-0.1022413460067076</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8528537744478721</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7875145967574199</v>
+        <v>0.8650977266811263</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.921278531070943</v>
+        <v>-1.982665827344282</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1908213457321815</v>
+        <v>-0.127632953700406</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8708161026868512</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8740361141988691</v>
+        <v>0.9272559626898743</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.860471269361192</v>
+        <v>-1.927582671185812</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2077936084040498</v>
+        <v>-0.1451773219670639</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8816935345817801</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8816326762277661</v>
+        <v>0.928494101663673</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.859133713317084</v>
+        <v>-1.937745169501788</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1967095199455073</v>
+        <v>-0.1372318853110669</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.88431271195556</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9437726146162118</v>
+        <v>0.9685317345681225</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.883401847124212</v>
+        <v>-1.963503949442888</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2249738540266891</v>
+        <v>-0.1634011418676191</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8775632742385847</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9375526435547351</v>
+        <v>0.9517631854022881</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.83912221591298</v>
+        <v>-1.919355451177157</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2197724504953816</v>
+        <v>-0.1679596890056341</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8607255656448073</v>
       </c>
       <c r="E78" t="n">
-        <v>1.036240248735278</v>
+        <v>1.043616629399869</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.858629308917413</v>
+        <v>-1.9447537679983</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1685836378579474</v>
+        <v>-0.1196765384722276</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8348614835239042</v>
       </c>
       <c r="E79" t="n">
-        <v>1.113772145322137</v>
+        <v>1.124640931781788</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.799945181083422</v>
+        <v>-1.894329185968831</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1815914161309532</v>
+        <v>-0.131719422234618</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8002124477355892</v>
       </c>
       <c r="E80" t="n">
-        <v>1.157623612218293</v>
+        <v>1.157441855856622</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.778846805033353</v>
+        <v>-1.861995461132386</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1830277793246949</v>
+        <v>-0.1400387402654615</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7568462291040833</v>
       </c>
       <c r="E81" t="n">
-        <v>1.236218600544724</v>
+        <v>1.232277293131578</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.673792847828914</v>
+        <v>-1.768911807129804</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1860273692129418</v>
+        <v>-0.1450004449708069</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7053226284683894</v>
       </c>
       <c r="E82" t="n">
-        <v>1.319297725686607</v>
+        <v>1.314814198791832</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.632748845807831</v>
+        <v>-1.717516231382952</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.136285288420754</v>
+        <v>-0.1062405958841446</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.645515679605605</v>
       </c>
       <c r="E83" t="n">
-        <v>1.397356593738177</v>
+        <v>1.401557117438941</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.543414374205219</v>
+        <v>-1.611128987579142</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1337901029321776</v>
+        <v>-0.09962661606548869</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5787306882369598</v>
       </c>
       <c r="E84" t="n">
-        <v>1.51295607944359</v>
+        <v>1.513618453298539</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.455164341565866</v>
+        <v>-1.511622868850403</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09980227322039212</v>
+        <v>-0.07397396232214211</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5069953946096254</v>
       </c>
       <c r="E85" t="n">
-        <v>1.631547226068452</v>
+        <v>1.627272901965802</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.315369912534534</v>
+        <v>-1.370065159142593</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07673507322578056</v>
+        <v>-0.06124064835367291</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4317921842842631</v>
       </c>
       <c r="E86" t="n">
-        <v>1.7025243051423</v>
+        <v>1.721893556073789</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.196568953196871</v>
+        <v>-1.249444196505513</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06655793681356248</v>
+        <v>-0.04387803644868594</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3562072294228307</v>
       </c>
       <c r="E87" t="n">
-        <v>1.81300411668709</v>
+        <v>1.828955372146082</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.03165494109367</v>
+        <v>-1.068051957478611</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0006663763424395294</v>
+        <v>0.009248494178776901</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2825937381794829</v>
       </c>
       <c r="E88" t="n">
-        <v>1.922741654768278</v>
+        <v>1.924346356068802</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.849424671056916</v>
+        <v>-0.8862687592979127</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01093980421539927</v>
+        <v>0.01490489853493839</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2135802404779434</v>
       </c>
       <c r="E89" t="n">
-        <v>1.994537857310998</v>
+        <v>2.014955561885817</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7163271710562781</v>
+        <v>-0.7494275661833951</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02316139473607685</v>
+        <v>0.03274446840914234</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1527620617328684</v>
       </c>
       <c r="E90" t="n">
-        <v>2.096919142109928</v>
+        <v>2.121411116805422</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5833016416954964</v>
+        <v>-0.6041029863759889</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03352089743064261</v>
+        <v>0.03846979380177636</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1030295479974217</v>
       </c>
       <c r="E91" t="n">
-        <v>2.120158339735382</v>
+        <v>2.142161838069745</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3714908287571378</v>
+        <v>-0.4022466888028354</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07046379282127248</v>
+        <v>0.06885726175871811</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06645983160879222</v>
       </c>
       <c r="E92" t="n">
-        <v>2.118882995600302</v>
+        <v>2.135541149123645</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2520549419949796</v>
+        <v>-0.2698829233763253</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06164677951820256</v>
+        <v>0.06232745099345339</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04392927784212509</v>
       </c>
       <c r="E93" t="n">
-        <v>2.080551920749393</v>
+        <v>2.098107267588233</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.04103641601571674</v>
+        <v>-0.0702400279390905</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04233242144762181</v>
+        <v>0.03795746043330799</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03328538304629889</v>
       </c>
       <c r="E94" t="n">
-        <v>2.017691056121032</v>
+        <v>2.025142457028863</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1170708813349753</v>
+        <v>0.09191348318114818</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01963666314514982</v>
+        <v>0.01860223767738512</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03151900274477019</v>
       </c>
       <c r="E95" t="n">
-        <v>1.904698981308717</v>
+        <v>1.915378692358575</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2465893668044557</v>
+        <v>0.2190081438812317</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.003642179324293304</v>
+        <v>-0.01058978575313043</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03299562817103414</v>
       </c>
       <c r="E96" t="n">
-        <v>1.77815995834515</v>
+        <v>1.783649244435883</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3069587054683017</v>
+        <v>0.2813054418042784</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03260304281832134</v>
+        <v>-0.03694994748150475</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03139606844013665</v>
       </c>
       <c r="E97" t="n">
-        <v>1.682702493068665</v>
+        <v>1.674880870310048</v>
       </c>
       <c r="F97" t="n">
-        <v>0.385374987036446</v>
+        <v>0.3495116512436602</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03360819209360214</v>
+        <v>-0.03819113605868705</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02717233500796299</v>
       </c>
       <c r="E98" t="n">
-        <v>1.568794927320552</v>
+        <v>1.556434274885576</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3904251302399199</v>
+        <v>0.3607506595540967</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07762799709653972</v>
+        <v>-0.08002925480089683</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.02349502899204783</v>
       </c>
       <c r="E99" t="n">
-        <v>1.427542787871792</v>
+        <v>1.426757819960817</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3781919512263842</v>
+        <v>0.3504594679753267</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.07556463544710104</v>
+        <v>-0.08258726211917819</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02776223825502783</v>
       </c>
       <c r="E100" t="n">
-        <v>1.299173392957305</v>
+        <v>1.302864022972308</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3826663293110079</v>
+        <v>0.3519348660923802</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09130668811396841</v>
+        <v>-0.09540474514103862</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04083438746338032</v>
       </c>
       <c r="E101" t="n">
-        <v>1.210329297578799</v>
+        <v>1.212751902506843</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3344002565565503</v>
+        <v>0.3128346812680925</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1532971959366108</v>
+        <v>-0.1491271682696843</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06693460599934488</v>
       </c>
       <c r="E102" t="n">
-        <v>1.056106585018316</v>
+        <v>1.053661413025233</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3616472429489163</v>
+        <v>0.3397651188292262</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1442819584135977</v>
+        <v>-0.1496114452870223</v>
       </c>
     </row>
   </sheetData>
